--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C0CDC-626B-4481-B4E3-3C7B3C100324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87591E16-B75E-4E37-BBB5-6469EAEDC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
     <t>if(${c_site1} = 'Autre', ${c_site_id2}, ${c_site_id1})</t>
   </si>
   <si>
-    <t>(2024 Juillet) 1. Pre-TAS FL Formulaire Site V2</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_2406_1_site_v2</t>
+    <t>ci_lf_pretas_2406_1_site_v4</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 1. EMS Formulaire Site V4</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>83</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87591E16-B75E-4E37-BBB5-6469EAEDC9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1150CBD1-EF52-40E8-8C80-0E84316417BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>(2024 Juillet) 1. EMS Formulaire Site V4</t>
+  </si>
+  <si>
+    <t>${c_consent} = 'Non'</t>
   </si>
 </sst>
 </file>
@@ -980,11 +983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H19:H20"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1406,6 +1409,9 @@
         <v>60</v>
       </c>
       <c r="D20" s="7"/>
+      <c r="H20" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1">
@@ -1962,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
